--- a/data/pca/factorExposure/factorExposure_2012-10-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-29.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0008653538358913091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.00193454060571583</v>
+      </c>
+      <c r="C2">
+        <v>0.0293631775225321</v>
+      </c>
+      <c r="D2">
+        <v>0.005469169500170202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001177785203262512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006902831639836957</v>
+      </c>
+      <c r="C4">
+        <v>0.08300658331892156</v>
+      </c>
+      <c r="D4">
+        <v>0.07508163537879627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.001004849695151383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01378122686050345</v>
+      </c>
+      <c r="C6">
+        <v>0.1134120941593182</v>
+      </c>
+      <c r="D6">
+        <v>0.02288428234702273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001571880029089276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004877851156198856</v>
+      </c>
+      <c r="C7">
+        <v>0.05825280272360096</v>
+      </c>
+      <c r="D7">
+        <v>0.03299310630958511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-8.606028418971511e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005505225496500152</v>
+      </c>
+      <c r="C8">
+        <v>0.03494695153846758</v>
+      </c>
+      <c r="D8">
+        <v>0.04227198595182127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003714358368676271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005119862461165844</v>
+      </c>
+      <c r="C9">
+        <v>0.07130263846374105</v>
+      </c>
+      <c r="D9">
+        <v>0.07556168633414212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0006752102694215892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005789290279058037</v>
+      </c>
+      <c r="C10">
+        <v>0.05722902779633521</v>
+      </c>
+      <c r="D10">
+        <v>-0.1970762596705661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003647985502749832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005593416273904544</v>
+      </c>
+      <c r="C11">
+        <v>0.07983920859831133</v>
+      </c>
+      <c r="D11">
+        <v>0.06413569429645974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0014521153434438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004029713629192933</v>
+      </c>
+      <c r="C12">
+        <v>0.06484931538519642</v>
+      </c>
+      <c r="D12">
+        <v>0.05066153202541108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001751620177562277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.0087777744938526</v>
+      </c>
+      <c r="C13">
+        <v>0.06957617433745122</v>
+      </c>
+      <c r="D13">
+        <v>0.05794201421802359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002431190846716833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008362961171266548</v>
+      </c>
+      <c r="C14">
+        <v>0.04337500649902964</v>
+      </c>
+      <c r="D14">
+        <v>0.008377027808304462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.001203521665945527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005954383708766362</v>
+      </c>
+      <c r="C15">
+        <v>0.04080740774821184</v>
+      </c>
+      <c r="D15">
+        <v>0.02978389667627286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.00199753106246824</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004995252157940186</v>
+      </c>
+      <c r="C16">
+        <v>0.06437390215870743</v>
+      </c>
+      <c r="D16">
+        <v>0.05605288744330884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>8.295609659961588e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009019149343043755</v>
+      </c>
+      <c r="C20">
+        <v>0.06495338655600223</v>
+      </c>
+      <c r="D20">
+        <v>0.04740447608338554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006252760009531053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009583188460752437</v>
+      </c>
+      <c r="C21">
+        <v>0.02036038151955139</v>
+      </c>
+      <c r="D21">
+        <v>0.04326851331018405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01751827385394122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006547927931999882</v>
+      </c>
+      <c r="C22">
+        <v>0.08936213401413962</v>
+      </c>
+      <c r="D22">
+        <v>0.1182754165497254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01742669427315134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006362177699992953</v>
+      </c>
+      <c r="C23">
+        <v>0.08980982744549847</v>
+      </c>
+      <c r="D23">
+        <v>0.1193522054099418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003118055080694267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005509381862768845</v>
+      </c>
+      <c r="C24">
+        <v>0.07594700793663668</v>
+      </c>
+      <c r="D24">
+        <v>0.06771745164043419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005216744425069458</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003208639405955882</v>
+      </c>
+      <c r="C25">
+        <v>0.07848309630873611</v>
+      </c>
+      <c r="D25">
+        <v>0.06536504057414276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004136229639815767</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.00365327702159817</v>
+      </c>
+      <c r="C26">
+        <v>0.03912081587976349</v>
+      </c>
+      <c r="D26">
+        <v>0.02557336124677637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.008994467919658957</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001335866085552929</v>
+      </c>
+      <c r="C28">
+        <v>0.1040027578834308</v>
+      </c>
+      <c r="D28">
+        <v>-0.323031920251854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001196158618856217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002685748164794126</v>
+      </c>
+      <c r="C29">
+        <v>0.04876664692481091</v>
+      </c>
+      <c r="D29">
+        <v>0.008908383429866966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005213022718100735</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009611928543490566</v>
+      </c>
+      <c r="C30">
+        <v>0.1418149370354984</v>
+      </c>
+      <c r="D30">
+        <v>0.1078151271949859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001085809482012498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006358507833569798</v>
+      </c>
+      <c r="C31">
+        <v>0.04440947990821328</v>
+      </c>
+      <c r="D31">
+        <v>0.02987558086304672</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0001691810995963153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003737586156125789</v>
+      </c>
+      <c r="C32">
+        <v>0.04052328096883644</v>
+      </c>
+      <c r="D32">
+        <v>0.02540141814201668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002792034889061749</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008962734147851738</v>
+      </c>
+      <c r="C33">
+        <v>0.0872614832460881</v>
+      </c>
+      <c r="D33">
+        <v>0.06648655439372568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004795686886460274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004036905385667718</v>
+      </c>
+      <c r="C34">
+        <v>0.05780554096903636</v>
+      </c>
+      <c r="D34">
+        <v>0.05731662462470723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.00041698777946651</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.00520719576878933</v>
+      </c>
+      <c r="C35">
+        <v>0.04112864646255494</v>
+      </c>
+      <c r="D35">
+        <v>0.01922463444274168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00452893739173745</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001160597191113413</v>
+      </c>
+      <c r="C36">
+        <v>0.02517423427369489</v>
+      </c>
+      <c r="D36">
+        <v>0.02537705367278124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0009002052584318726</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009196196792892476</v>
+      </c>
+      <c r="C38">
+        <v>0.03673685052672121</v>
+      </c>
+      <c r="D38">
+        <v>0.01572632272903319</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01217337731137359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009895589426185082</v>
+      </c>
+      <c r="C39">
+        <v>0.1144115738073982</v>
+      </c>
+      <c r="D39">
+        <v>0.07858288454079855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008826938818028178</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003604393545041738</v>
+      </c>
+      <c r="C40">
+        <v>0.09104926576517899</v>
+      </c>
+      <c r="D40">
+        <v>0.01555853145921035</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0007901825409082608</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007171694389741024</v>
+      </c>
+      <c r="C41">
+        <v>0.03843073629196424</v>
+      </c>
+      <c r="D41">
+        <v>0.03870954013696989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003414855525780611</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003948415988272728</v>
+      </c>
+      <c r="C43">
+        <v>0.05346661881315425</v>
+      </c>
+      <c r="D43">
+        <v>0.02655721500220832</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01520281576754712</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003134042696689873</v>
+      </c>
+      <c r="C44">
+        <v>0.1064439120274556</v>
+      </c>
+      <c r="D44">
+        <v>0.06643019065776397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001177688786953315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001827625476479977</v>
+      </c>
+      <c r="C46">
+        <v>0.03300037273416381</v>
+      </c>
+      <c r="D46">
+        <v>0.03342456794503131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002290155592779616</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002237423506709736</v>
+      </c>
+      <c r="C47">
+        <v>0.03643739586617548</v>
+      </c>
+      <c r="D47">
+        <v>0.02068884988133063</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004069389635375012</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006645967499742405</v>
+      </c>
+      <c r="C48">
+        <v>0.03010473536711406</v>
+      </c>
+      <c r="D48">
+        <v>0.03673802258642866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01156122899335299</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01725814021844969</v>
+      </c>
+      <c r="C49">
+        <v>0.1884123925575351</v>
+      </c>
+      <c r="D49">
+        <v>0.007432054443739435</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.002141491847780973</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003594709956209337</v>
+      </c>
+      <c r="C50">
+        <v>0.04299546150338189</v>
+      </c>
+      <c r="D50">
+        <v>0.03799226072000094</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0003411143096476176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004751975259609289</v>
+      </c>
+      <c r="C51">
+        <v>0.02575449584478854</v>
+      </c>
+      <c r="D51">
+        <v>0.02226278457257351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0005901814481535344</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02111434576082786</v>
+      </c>
+      <c r="C53">
+        <v>0.1701623833084486</v>
+      </c>
+      <c r="D53">
+        <v>0.02470231271507133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002012949318445001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008906669066280336</v>
+      </c>
+      <c r="C54">
+        <v>0.05440195386651853</v>
+      </c>
+      <c r="D54">
+        <v>0.04455139457904767</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005019851196175559</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009733805455328988</v>
+      </c>
+      <c r="C55">
+        <v>0.108600076141233</v>
+      </c>
+      <c r="D55">
+        <v>0.03853951669367695</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001136495445876951</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02003675514077741</v>
+      </c>
+      <c r="C56">
+        <v>0.1760996199973143</v>
+      </c>
+      <c r="D56">
+        <v>0.01475257585453635</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.009206596872030393</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01975199491280105</v>
+      </c>
+      <c r="C58">
+        <v>0.1090692321829924</v>
+      </c>
+      <c r="D58">
+        <v>0.06357186636354462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.01091979627148172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009742448561229451</v>
+      </c>
+      <c r="C59">
+        <v>0.1646704804130829</v>
+      </c>
+      <c r="D59">
+        <v>-0.3364333124295095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.005168660538224529</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02511298795612575</v>
+      </c>
+      <c r="C60">
+        <v>0.2244755082185556</v>
+      </c>
+      <c r="D60">
+        <v>0.02339450221427534</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01445193968744356</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001891929387484489</v>
+      </c>
+      <c r="C61">
+        <v>0.09452773313756019</v>
+      </c>
+      <c r="D61">
+        <v>0.05818423688907365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1588574694209968</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1490662400903459</v>
+      </c>
+      <c r="C62">
+        <v>0.09540988338363683</v>
+      </c>
+      <c r="D62">
+        <v>0.02614337894209723</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.00103279522690959</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006585680824978055</v>
+      </c>
+      <c r="C63">
+        <v>0.05436928846459609</v>
+      </c>
+      <c r="D63">
+        <v>0.03042350798987973</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0004731196543356485</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01576183554794271</v>
+      </c>
+      <c r="C64">
+        <v>0.1040963920932684</v>
+      </c>
+      <c r="D64">
+        <v>0.05820596938658147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00144522707518363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01790336374225128</v>
+      </c>
+      <c r="C65">
+        <v>0.1236877547749149</v>
+      </c>
+      <c r="D65">
+        <v>0.02023934025445447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.006388759933217136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01327661605595606</v>
+      </c>
+      <c r="C66">
+        <v>0.1589901030339625</v>
+      </c>
+      <c r="D66">
+        <v>0.1135009633507073</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002559065197084823</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01545343335242302</v>
+      </c>
+      <c r="C67">
+        <v>0.06822604275001835</v>
+      </c>
+      <c r="D67">
+        <v>0.02826089750346361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008229121069069341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001011501520359749</v>
+      </c>
+      <c r="C68">
+        <v>0.0868290637619616</v>
+      </c>
+      <c r="D68">
+        <v>-0.2583477187186549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002206683626581605</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006106090586817474</v>
+      </c>
+      <c r="C69">
+        <v>0.05129790374298085</v>
+      </c>
+      <c r="D69">
+        <v>0.03820733062589356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003079202470926767</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001976725008358389</v>
+      </c>
+      <c r="C70">
+        <v>0.004999727096619532</v>
+      </c>
+      <c r="D70">
+        <v>0.002411834800657454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002779333117870257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005698859183781947</v>
+      </c>
+      <c r="C71">
+        <v>0.09172359405617612</v>
+      </c>
+      <c r="D71">
+        <v>-0.304365590822513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004720241618875682</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01658614305985336</v>
+      </c>
+      <c r="C72">
+        <v>0.1556630277169092</v>
+      </c>
+      <c r="D72">
+        <v>0.01480718764630551</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01485381432459074</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03172196961760205</v>
+      </c>
+      <c r="C73">
+        <v>0.283248564923049</v>
+      </c>
+      <c r="D73">
+        <v>0.05400722873290583</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.006842285743261214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001999776781553667</v>
+      </c>
+      <c r="C74">
+        <v>0.1024758042649809</v>
+      </c>
+      <c r="D74">
+        <v>0.03621337214886969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004860050474511856</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.0113236756127027</v>
+      </c>
+      <c r="C75">
+        <v>0.123190803505556</v>
+      </c>
+      <c r="D75">
+        <v>0.0216741995200698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.005239785426030651</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02233685339488323</v>
+      </c>
+      <c r="C76">
+        <v>0.1484299289120702</v>
+      </c>
+      <c r="D76">
+        <v>0.05686628504808316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001986906903674717</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02186029753413218</v>
+      </c>
+      <c r="C77">
+        <v>0.1129675681435216</v>
+      </c>
+      <c r="D77">
+        <v>0.05222594128300279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0005607679486706633</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01496697347976552</v>
+      </c>
+      <c r="C78">
+        <v>0.09663532489691397</v>
+      </c>
+      <c r="D78">
+        <v>0.07607475966096398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02165217049991123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03848236776581244</v>
+      </c>
+      <c r="C79">
+        <v>0.1573360282562535</v>
+      </c>
+      <c r="D79">
+        <v>0.03117135991664334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006772146613372867</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01003431416261434</v>
+      </c>
+      <c r="C80">
+        <v>0.03841222497488309</v>
+      </c>
+      <c r="D80">
+        <v>0.03110084059749078</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-2.60265205969117e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01582462959920516</v>
+      </c>
+      <c r="C81">
+        <v>0.1298831780603262</v>
+      </c>
+      <c r="D81">
+        <v>0.03791474397642788</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.002454874119079348</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02011099348104965</v>
+      </c>
+      <c r="C82">
+        <v>0.1385543249765435</v>
+      </c>
+      <c r="D82">
+        <v>0.04284398850615653</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006929023897629657</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.010288434548687</v>
+      </c>
+      <c r="C83">
+        <v>0.05928110945829497</v>
+      </c>
+      <c r="D83">
+        <v>0.04940985791867642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01325575061179839</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01193666107636111</v>
+      </c>
+      <c r="C84">
+        <v>0.03724970935595702</v>
+      </c>
+      <c r="D84">
+        <v>-0.005484234431263392</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01327097214315029</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02960074382618388</v>
+      </c>
+      <c r="C85">
+        <v>0.1249114495559742</v>
+      </c>
+      <c r="D85">
+        <v>0.03999079203689765</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00280182215444566</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004372029275007273</v>
+      </c>
+      <c r="C86">
+        <v>0.04934045345832634</v>
+      </c>
+      <c r="D86">
+        <v>0.03058410265329966</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004171544488664376</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.0109893487779779</v>
+      </c>
+      <c r="C87">
+        <v>0.1285184558177087</v>
+      </c>
+      <c r="D87">
+        <v>0.07347258279641095</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01163706911405424</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002805803065412014</v>
+      </c>
+      <c r="C88">
+        <v>0.063557221839076</v>
+      </c>
+      <c r="D88">
+        <v>0.02553660948406828</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01642412009061589</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001999823380319614</v>
+      </c>
+      <c r="C89">
+        <v>0.1396502151957062</v>
+      </c>
+      <c r="D89">
+        <v>-0.3198913904583522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004775542645980079</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006650594901242851</v>
+      </c>
+      <c r="C90">
+        <v>0.1193749804593109</v>
+      </c>
+      <c r="D90">
+        <v>-0.3144813237401479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001653230338345729</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01046821613088563</v>
+      </c>
+      <c r="C91">
+        <v>0.09978946655227713</v>
+      </c>
+      <c r="D91">
+        <v>0.0254607248161125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01174059653940216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004523658194556538</v>
+      </c>
+      <c r="C92">
+        <v>0.1347392960724623</v>
+      </c>
+      <c r="D92">
+        <v>-0.3259665192453672</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003941031526887024</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004573580985104174</v>
+      </c>
+      <c r="C93">
+        <v>0.1047493081077571</v>
+      </c>
+      <c r="D93">
+        <v>-0.3001528005370762</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-8.846452877197996e-06</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02199292767035587</v>
+      </c>
+      <c r="C94">
+        <v>0.1445222132229891</v>
+      </c>
+      <c r="D94">
+        <v>0.05084899670010903</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.003404888731591138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01663846534160652</v>
+      </c>
+      <c r="C95">
+        <v>0.1214342052080519</v>
+      </c>
+      <c r="D95">
+        <v>0.06558119915452318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0001484850859936856</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03694178365661384</v>
+      </c>
+      <c r="C97">
+        <v>0.2238850495538845</v>
+      </c>
+      <c r="D97">
+        <v>-0.002047207150075293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003941018731014422</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03784474174941894</v>
+      </c>
+      <c r="C98">
+        <v>0.2531148030632199</v>
+      </c>
+      <c r="D98">
+        <v>0.04210306995889111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9852476828565816</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.981313415706585</v>
+      </c>
+      <c r="C99">
+        <v>-0.1196558172179814</v>
+      </c>
+      <c r="D99">
+        <v>-0.02450263481137364</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001110616872161529</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002727135373516148</v>
+      </c>
+      <c r="C101">
+        <v>0.04890308319285751</v>
+      </c>
+      <c r="D101">
+        <v>0.009292993438178673</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
